--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gas6-Axl.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gas6-Axl.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.1454079383868</v>
+        <v>17.651035</v>
       </c>
       <c r="H2">
-        <v>17.1454079383868</v>
+        <v>35.30207</v>
       </c>
       <c r="I2">
-        <v>0.1370544341315852</v>
+        <v>0.1325947993186649</v>
       </c>
       <c r="J2">
-        <v>0.1370544341315852</v>
+        <v>0.09359607745031152</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.81248289700344</v>
+        <v>1.8337055</v>
       </c>
       <c r="N2">
-        <v>1.81248289700344</v>
+        <v>3.667411</v>
       </c>
       <c r="O2">
-        <v>0.00810490388791928</v>
+        <v>0.007313502929307318</v>
       </c>
       <c r="P2">
-        <v>0.00810490388791928</v>
+        <v>0.00521519558215984</v>
       </c>
       <c r="Q2">
-        <v>31.07575865047308</v>
+        <v>32.3667999601925</v>
       </c>
       <c r="R2">
-        <v>31.07575865047308</v>
+        <v>129.46719984077</v>
       </c>
       <c r="S2">
-        <v>0.001110813016049662</v>
+        <v>0.000969732453227972</v>
       </c>
       <c r="T2">
-        <v>0.001110813016049662</v>
+        <v>0.0004881218496263549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.1454079383868</v>
+        <v>17.651035</v>
       </c>
       <c r="H3">
-        <v>17.1454079383868</v>
+        <v>35.30207</v>
       </c>
       <c r="I3">
-        <v>0.1370544341315852</v>
+        <v>0.1325947993186649</v>
       </c>
       <c r="J3">
-        <v>0.1370544341315852</v>
+        <v>0.09359607745031152</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>79.8196808336624</v>
+        <v>85.28552633333334</v>
       </c>
       <c r="N3">
-        <v>79.8196808336624</v>
+        <v>255.856579</v>
       </c>
       <c r="O3">
-        <v>0.3569307288862095</v>
+        <v>0.3401505567095424</v>
       </c>
       <c r="P3">
-        <v>0.3569307288862095</v>
+        <v>0.3638376229081851</v>
       </c>
       <c r="Q3">
-        <v>1368.540989404976</v>
+        <v>1505.377810303088</v>
       </c>
       <c r="R3">
-        <v>1368.540989404976</v>
+        <v>9032.266861818531</v>
       </c>
       <c r="S3">
-        <v>0.0489189390716737</v>
+        <v>0.04510219480503393</v>
       </c>
       <c r="T3">
-        <v>0.0489189390716737</v>
+        <v>0.03405377433305173</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.1454079383868</v>
+        <v>17.651035</v>
       </c>
       <c r="H4">
-        <v>17.1454079383868</v>
+        <v>35.30207</v>
       </c>
       <c r="I4">
-        <v>0.1370544341315852</v>
+        <v>0.1325947993186649</v>
       </c>
       <c r="J4">
-        <v>0.1370544341315852</v>
+        <v>0.09359607745031152</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.3074741009588</v>
+        <v>32.77748500000001</v>
       </c>
       <c r="N4">
-        <v>16.3074741009588</v>
+        <v>98.33245500000001</v>
       </c>
       <c r="O4">
-        <v>0.07292234892893067</v>
+        <v>0.1307288616208147</v>
       </c>
       <c r="P4">
-        <v>0.07292234892893067</v>
+        <v>0.1398324280804446</v>
       </c>
       <c r="Q4">
-        <v>279.5982959056162</v>
+        <v>578.5565349469751</v>
       </c>
       <c r="R4">
-        <v>279.5982959056162</v>
+        <v>3471.33920968185</v>
       </c>
       <c r="S4">
-        <v>0.0099943312680006</v>
+        <v>0.01733396717176944</v>
       </c>
       <c r="T4">
-        <v>0.0099943312680006</v>
+        <v>0.01308776676868241</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.1454079383868</v>
+        <v>17.651035</v>
       </c>
       <c r="H5">
-        <v>17.1454079383868</v>
+        <v>35.30207</v>
       </c>
       <c r="I5">
-        <v>0.1370544341315852</v>
+        <v>0.1325947993186649</v>
       </c>
       <c r="J5">
-        <v>0.1370544341315852</v>
+        <v>0.09359607745031152</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.43967229135281</v>
+        <v>80.65247599999999</v>
       </c>
       <c r="N5">
-        <v>79.43967229135281</v>
+        <v>241.957428</v>
       </c>
       <c r="O5">
-        <v>0.355231439631067</v>
+        <v>0.3216722202566814</v>
       </c>
       <c r="P5">
-        <v>0.355231439631067</v>
+        <v>0.3440725104375696</v>
       </c>
       <c r="Q5">
-        <v>1362.025587927006</v>
+        <v>1423.59967671266</v>
       </c>
       <c r="R5">
-        <v>1362.025587927006</v>
+        <v>8541.598060275959</v>
       </c>
       <c r="S5">
-        <v>0.04868604394438425</v>
+        <v>0.04265206349132406</v>
       </c>
       <c r="T5">
-        <v>0.04868604394438425</v>
+        <v>0.03220383733543788</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.1454079383868</v>
+        <v>17.651035</v>
       </c>
       <c r="H6">
-        <v>17.1454079383868</v>
+        <v>35.30207</v>
       </c>
       <c r="I6">
-        <v>0.1370544341315852</v>
+        <v>0.1325947993186649</v>
       </c>
       <c r="J6">
-        <v>0.1370544341315852</v>
+        <v>0.09359607745031152</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.81190684904634</v>
+        <v>3.043386333333333</v>
       </c>
       <c r="N6">
-        <v>2.81190684904634</v>
+        <v>9.130158999999999</v>
       </c>
       <c r="O6">
-        <v>0.01257404127287568</v>
+        <v>0.01213816224243598</v>
       </c>
       <c r="P6">
-        <v>0.01257404127287568</v>
+        <v>0.01298342751363752</v>
       </c>
       <c r="Q6">
-        <v>48.21129001164333</v>
+        <v>53.71891868818832</v>
       </c>
       <c r="R6">
-        <v>48.21129001164333</v>
+        <v>322.3135121291299</v>
       </c>
       <c r="S6">
-        <v>0.001723328111401174</v>
+        <v>0.001609457186633195</v>
       </c>
       <c r="T6">
-        <v>0.001723328111401174</v>
+        <v>0.001215197887136923</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.1454079383868</v>
+        <v>17.651035</v>
       </c>
       <c r="H7">
-        <v>17.1454079383868</v>
+        <v>35.30207</v>
       </c>
       <c r="I7">
-        <v>0.1370544341315852</v>
+        <v>0.1325947993186649</v>
       </c>
       <c r="J7">
-        <v>0.1370544341315852</v>
+        <v>0.09359607745031152</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.4367152117281</v>
+        <v>47.136178</v>
       </c>
       <c r="N7">
-        <v>43.4367152117281</v>
+        <v>94.272356</v>
       </c>
       <c r="O7">
-        <v>0.1942365373929978</v>
+        <v>0.1879966962412182</v>
       </c>
       <c r="P7">
-        <v>0.1942365373929978</v>
+        <v>0.1340588154780033</v>
       </c>
       <c r="Q7">
-        <v>744.7402018086096</v>
+        <v>832.00232764423</v>
       </c>
       <c r="R7">
-        <v>744.7402018086096</v>
+        <v>3328.00931057692</v>
       </c>
       <c r="S7">
-        <v>0.0266209787200758</v>
+        <v>0.02492738421067634</v>
       </c>
       <c r="T7">
-        <v>0.0266209787200758</v>
+        <v>0.01254737927637622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.7235762397842</v>
+        <v>35.25263733333333</v>
       </c>
       <c r="H8">
-        <v>34.7235762397842</v>
+        <v>105.757912</v>
       </c>
       <c r="I8">
-        <v>0.2775682042486505</v>
+        <v>0.2648182598168894</v>
       </c>
       <c r="J8">
-        <v>0.2775682042486505</v>
+        <v>0.2803950511268952</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.81248289700344</v>
+        <v>1.8337055</v>
       </c>
       <c r="N8">
-        <v>1.81248289700344</v>
+        <v>3.667411</v>
       </c>
       <c r="O8">
-        <v>0.00810490388791928</v>
+        <v>0.007313502929307318</v>
       </c>
       <c r="P8">
-        <v>0.00810490388791928</v>
+        <v>0.00521519558215984</v>
       </c>
       <c r="Q8">
-        <v>62.93588805740388</v>
+        <v>64.64295496763866</v>
       </c>
       <c r="R8">
-        <v>62.93588805740388</v>
+        <v>387.857729805832</v>
       </c>
       <c r="S8">
-        <v>0.00224966361777766</v>
+        <v>0.001936749118904887</v>
       </c>
       <c r="T8">
-        <v>0.00224966361777766</v>
+        <v>0.001462315031896466</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.7235762397842</v>
+        <v>35.25263733333333</v>
       </c>
       <c r="H9">
-        <v>34.7235762397842</v>
+        <v>105.757912</v>
       </c>
       <c r="I9">
-        <v>0.2775682042486505</v>
+        <v>0.2648182598168894</v>
       </c>
       <c r="J9">
-        <v>0.2775682042486505</v>
+        <v>0.2803950511268952</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>79.8196808336624</v>
+        <v>85.28552633333334</v>
       </c>
       <c r="N9">
-        <v>79.8196808336624</v>
+        <v>255.856579</v>
       </c>
       <c r="O9">
-        <v>0.3569307288862095</v>
+        <v>0.3401505567095424</v>
       </c>
       <c r="P9">
-        <v>0.3569307288862095</v>
+        <v>0.3638376229081851</v>
       </c>
       <c r="Q9">
-        <v>2771.624772862918</v>
+        <v>3006.53972961145</v>
       </c>
       <c r="R9">
-        <v>2771.624772862918</v>
+        <v>27058.85756650305</v>
       </c>
       <c r="S9">
-        <v>0.09907262145810709</v>
+        <v>0.09007807850356717</v>
       </c>
       <c r="T9">
-        <v>0.09907262145810709</v>
+        <v>0.1020182688772286</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.7235762397842</v>
+        <v>35.25263733333333</v>
       </c>
       <c r="H10">
-        <v>34.7235762397842</v>
+        <v>105.757912</v>
       </c>
       <c r="I10">
-        <v>0.2775682042486505</v>
+        <v>0.2648182598168894</v>
       </c>
       <c r="J10">
-        <v>0.2775682042486505</v>
+        <v>0.2803950511268952</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.3074741009588</v>
+        <v>32.77748500000001</v>
       </c>
       <c r="N10">
-        <v>16.3074741009588</v>
+        <v>98.33245500000001</v>
       </c>
       <c r="O10">
-        <v>0.07292234892893067</v>
+        <v>0.1307288616208147</v>
       </c>
       <c r="P10">
-        <v>0.07292234892893067</v>
+        <v>0.1398324280804446</v>
       </c>
       <c r="Q10">
-        <v>566.2538202229492</v>
+        <v>1155.492791403773</v>
       </c>
       <c r="R10">
-        <v>566.2538202229492</v>
+        <v>10399.43512263396</v>
       </c>
       <c r="S10">
-        <v>0.02024092544179679</v>
+        <v>0.03461938964226707</v>
       </c>
       <c r="T10">
-        <v>0.02024092544179679</v>
+        <v>0.03920832082081415</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.7235762397842</v>
+        <v>35.25263733333333</v>
       </c>
       <c r="H11">
-        <v>34.7235762397842</v>
+        <v>105.757912</v>
       </c>
       <c r="I11">
-        <v>0.2775682042486505</v>
+        <v>0.2648182598168894</v>
       </c>
       <c r="J11">
-        <v>0.2775682042486505</v>
+        <v>0.2803950511268952</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.43967229135281</v>
+        <v>80.65247599999999</v>
       </c>
       <c r="N11">
-        <v>79.43967229135281</v>
+        <v>241.957428</v>
       </c>
       <c r="O11">
-        <v>0.355231439631067</v>
+        <v>0.3216722202566814</v>
       </c>
       <c r="P11">
-        <v>0.355231439631067</v>
+        <v>0.3440725104375696</v>
       </c>
       <c r="Q11">
-        <v>2758.429517272262</v>
+        <v>2843.21248646337</v>
       </c>
       <c r="R11">
-        <v>2758.429517272262</v>
+        <v>25588.91237817033</v>
       </c>
       <c r="S11">
-        <v>0.09860095279105814</v>
+        <v>0.08518467759980952</v>
       </c>
       <c r="T11">
-        <v>0.09860095279105814</v>
+        <v>0.0964762291555015</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.7235762397842</v>
+        <v>35.25263733333333</v>
       </c>
       <c r="H12">
-        <v>34.7235762397842</v>
+        <v>105.757912</v>
       </c>
       <c r="I12">
-        <v>0.2775682042486505</v>
+        <v>0.2648182598168894</v>
       </c>
       <c r="J12">
-        <v>0.2775682042486505</v>
+        <v>0.2803950511268952</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.81190684904634</v>
+        <v>3.043386333333333</v>
       </c>
       <c r="N12">
-        <v>2.81190684904634</v>
+        <v>9.130158999999999</v>
       </c>
       <c r="O12">
-        <v>0.01257404127287568</v>
+        <v>0.01213816224243598</v>
       </c>
       <c r="P12">
-        <v>0.01257404127287568</v>
+        <v>0.01298342751363752</v>
       </c>
       <c r="Q12">
-        <v>97.63946185203194</v>
+        <v>107.2873946742231</v>
       </c>
       <c r="R12">
-        <v>97.63946185203194</v>
+        <v>965.5865520680079</v>
       </c>
       <c r="S12">
-        <v>0.003490154056260518</v>
+        <v>0.003214407002416968</v>
       </c>
       <c r="T12">
-        <v>0.003490154056260518</v>
+        <v>0.00364048882148873</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.7235762397842</v>
+        <v>35.25263733333333</v>
       </c>
       <c r="H13">
-        <v>34.7235762397842</v>
+        <v>105.757912</v>
       </c>
       <c r="I13">
-        <v>0.2775682042486505</v>
+        <v>0.2648182598168894</v>
       </c>
       <c r="J13">
-        <v>0.2775682042486505</v>
+        <v>0.2803950511268952</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>43.4367152117281</v>
+        <v>47.136178</v>
       </c>
       <c r="N13">
-        <v>43.4367152117281</v>
+        <v>94.272356</v>
       </c>
       <c r="O13">
-        <v>0.1942365373929978</v>
+        <v>0.1879966962412182</v>
       </c>
       <c r="P13">
-        <v>0.1942365373929978</v>
+        <v>0.1340588154780033</v>
       </c>
       <c r="Q13">
-        <v>1508.278092260235</v>
+        <v>1661.674588313445</v>
       </c>
       <c r="R13">
-        <v>1508.278092260235</v>
+        <v>9970.047529880672</v>
       </c>
       <c r="S13">
-        <v>0.05391388688365024</v>
+        <v>0.04978495794992376</v>
       </c>
       <c r="T13">
-        <v>0.05391388688365024</v>
+        <v>0.03758942841996575</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.0546832194084</v>
+        <v>29.66513466666667</v>
       </c>
       <c r="H14">
-        <v>25.0546832194084</v>
+        <v>88.99540400000001</v>
       </c>
       <c r="I14">
-        <v>0.2002784327629845</v>
+        <v>0.2228448687506334</v>
       </c>
       <c r="J14">
-        <v>0.2002784327629845</v>
+        <v>0.2359527564674186</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.81248289700344</v>
+        <v>1.8337055</v>
       </c>
       <c r="N14">
-        <v>1.81248289700344</v>
+        <v>3.667411</v>
       </c>
       <c r="O14">
-        <v>0.00810490388791928</v>
+        <v>0.007313502929307318</v>
       </c>
       <c r="P14">
-        <v>0.00810490388791928</v>
+        <v>0.00521519558215984</v>
       </c>
       <c r="Q14">
-        <v>45.41118482501681</v>
+        <v>54.39712059650734</v>
       </c>
       <c r="R14">
-        <v>45.41118482501681</v>
+        <v>326.382723579044</v>
       </c>
       <c r="S14">
-        <v>0.001623237448367093</v>
+        <v>0.001629776600388863</v>
       </c>
       <c r="T14">
-        <v>0.001623237448367093</v>
+        <v>0.001230539773127318</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.0546832194084</v>
+        <v>29.66513466666667</v>
       </c>
       <c r="H15">
-        <v>25.0546832194084</v>
+        <v>88.99540400000001</v>
       </c>
       <c r="I15">
-        <v>0.2002784327629845</v>
+        <v>0.2228448687506334</v>
       </c>
       <c r="J15">
-        <v>0.2002784327629845</v>
+        <v>0.2359527564674186</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>79.8196808336624</v>
+        <v>85.28552633333334</v>
       </c>
       <c r="N15">
-        <v>79.8196808336624</v>
+        <v>255.856579</v>
       </c>
       <c r="O15">
-        <v>0.3569307288862095</v>
+        <v>0.3401505567095424</v>
       </c>
       <c r="P15">
-        <v>0.3569307288862095</v>
+        <v>0.3638376229081851</v>
       </c>
       <c r="Q15">
-        <v>1999.856817961696</v>
+        <v>2530.00662379588</v>
       </c>
       <c r="R15">
-        <v>1999.856817961696</v>
+        <v>22770.05961416292</v>
       </c>
       <c r="S15">
-        <v>0.07148552698627976</v>
+        <v>0.07580080616539288</v>
       </c>
       <c r="T15">
-        <v>0.07148552698627976</v>
+        <v>0.08584849003173949</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.0546832194084</v>
+        <v>29.66513466666667</v>
       </c>
       <c r="H16">
-        <v>25.0546832194084</v>
+        <v>88.99540400000001</v>
       </c>
       <c r="I16">
-        <v>0.2002784327629845</v>
+        <v>0.2228448687506334</v>
       </c>
       <c r="J16">
-        <v>0.2002784327629845</v>
+        <v>0.2359527564674186</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.3074741009588</v>
+        <v>32.77748500000001</v>
       </c>
       <c r="N16">
-        <v>16.3074741009588</v>
+        <v>98.33245500000001</v>
       </c>
       <c r="O16">
-        <v>0.07292234892893067</v>
+        <v>0.1307288616208147</v>
       </c>
       <c r="P16">
-        <v>0.07292234892893067</v>
+        <v>0.1398324280804446</v>
       </c>
       <c r="Q16">
-        <v>408.5785977082295</v>
+        <v>972.3485065596469</v>
       </c>
       <c r="R16">
-        <v>408.5785977082295</v>
+        <v>8751.136559036822</v>
       </c>
       <c r="S16">
-        <v>0.01460477375688173</v>
+        <v>0.02913225600981016</v>
       </c>
       <c r="T16">
-        <v>0.01460477375688173</v>
+        <v>0.03299384684911297</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.0546832194084</v>
+        <v>29.66513466666667</v>
       </c>
       <c r="H17">
-        <v>25.0546832194084</v>
+        <v>88.99540400000001</v>
       </c>
       <c r="I17">
-        <v>0.2002784327629845</v>
+        <v>0.2228448687506334</v>
       </c>
       <c r="J17">
-        <v>0.2002784327629845</v>
+        <v>0.2359527564674186</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.43967229135281</v>
+        <v>80.65247599999999</v>
       </c>
       <c r="N17">
-        <v>79.43967229135281</v>
+        <v>241.957428</v>
       </c>
       <c r="O17">
-        <v>0.355231439631067</v>
+        <v>0.3216722202566814</v>
       </c>
       <c r="P17">
-        <v>0.355231439631067</v>
+        <v>0.3440725104375696</v>
       </c>
       <c r="Q17">
-        <v>1990.33582431346</v>
+        <v>2392.566561740101</v>
       </c>
       <c r="R17">
-        <v>1990.33582431346</v>
+        <v>21533.09905566091</v>
       </c>
       <c r="S17">
-        <v>0.07114519599744883</v>
+        <v>0.07168300370382502</v>
       </c>
       <c r="T17">
-        <v>0.07114519599744883</v>
+        <v>0.0811848572624092</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>25.0546832194084</v>
+        <v>29.66513466666667</v>
       </c>
       <c r="H18">
-        <v>25.0546832194084</v>
+        <v>88.99540400000001</v>
       </c>
       <c r="I18">
-        <v>0.2002784327629845</v>
+        <v>0.2228448687506334</v>
       </c>
       <c r="J18">
-        <v>0.2002784327629845</v>
+        <v>0.2359527564674186</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.81190684904634</v>
+        <v>3.043386333333333</v>
       </c>
       <c r="N18">
-        <v>2.81190684904634</v>
+        <v>9.130158999999999</v>
       </c>
       <c r="O18">
-        <v>0.01257404127287568</v>
+        <v>0.01213816224243598</v>
       </c>
       <c r="P18">
-        <v>0.01257404127287568</v>
+        <v>0.01298342751363752</v>
       </c>
       <c r="Q18">
-        <v>70.45143534534088</v>
+        <v>90.28246542102622</v>
       </c>
       <c r="R18">
-        <v>70.45143534534088</v>
+        <v>812.542188789236</v>
       </c>
       <c r="S18">
-        <v>0.002518309279628624</v>
+        <v>0.002704927171789541</v>
       </c>
       <c r="T18">
-        <v>0.002518309279628624</v>
+        <v>0.003063475510237697</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>25.0546832194084</v>
+        <v>29.66513466666667</v>
       </c>
       <c r="H19">
-        <v>25.0546832194084</v>
+        <v>88.99540400000001</v>
       </c>
       <c r="I19">
-        <v>0.2002784327629845</v>
+        <v>0.2228448687506334</v>
       </c>
       <c r="J19">
-        <v>0.2002784327629845</v>
+        <v>0.2359527564674186</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.4367152117281</v>
+        <v>47.136178</v>
       </c>
       <c r="N19">
-        <v>43.4367152117281</v>
+        <v>94.272356</v>
       </c>
       <c r="O19">
-        <v>0.1942365373929978</v>
+        <v>0.1879966962412182</v>
       </c>
       <c r="P19">
-        <v>0.1942365373929978</v>
+        <v>0.1340588154780033</v>
       </c>
       <c r="Q19">
-        <v>1088.293139721506</v>
+        <v>1398.301068041971</v>
       </c>
       <c r="R19">
-        <v>1088.293139721506</v>
+        <v>8389.806408251825</v>
       </c>
       <c r="S19">
-        <v>0.03890138929437843</v>
+        <v>0.04189409909942698</v>
       </c>
       <c r="T19">
-        <v>0.03890138929437843</v>
+        <v>0.03163154704079193</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.9711979334492</v>
+        <v>32.892914</v>
       </c>
       <c r="H20">
-        <v>30.9711979334492</v>
+        <v>98.678742</v>
       </c>
       <c r="I20">
-        <v>0.2475729957782262</v>
+        <v>0.2470919881375853</v>
       </c>
       <c r="J20">
-        <v>0.2475729957782262</v>
+        <v>0.2616261080138164</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.81248289700344</v>
+        <v>1.8337055</v>
       </c>
       <c r="N20">
-        <v>1.81248289700344</v>
+        <v>3.667411</v>
       </c>
       <c r="O20">
-        <v>0.00810490388791928</v>
+        <v>0.007313502929307318</v>
       </c>
       <c r="P20">
-        <v>0.00810490388791928</v>
+        <v>0.00521519558215984</v>
       </c>
       <c r="Q20">
-        <v>56.13476655408495</v>
+        <v>60.315917312827</v>
       </c>
       <c r="R20">
-        <v>56.13476655408495</v>
+        <v>361.895503876962</v>
       </c>
       <c r="S20">
-        <v>0.002006555336026769</v>
+        <v>0.001807107979052599</v>
       </c>
       <c r="T20">
-        <v>0.002006555336026769</v>
+        <v>0.001364431322691328</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.9711979334492</v>
+        <v>32.892914</v>
       </c>
       <c r="H21">
-        <v>30.9711979334492</v>
+        <v>98.678742</v>
       </c>
       <c r="I21">
-        <v>0.2475729957782262</v>
+        <v>0.2470919881375853</v>
       </c>
       <c r="J21">
-        <v>0.2475729957782262</v>
+        <v>0.2616261080138164</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>79.8196808336624</v>
+        <v>85.28552633333334</v>
       </c>
       <c r="N21">
-        <v>79.8196808336624</v>
+        <v>255.856579</v>
       </c>
       <c r="O21">
-        <v>0.3569307288862095</v>
+        <v>0.3401505567095424</v>
       </c>
       <c r="P21">
-        <v>0.3569307288862095</v>
+        <v>0.3638376229081851</v>
       </c>
       <c r="Q21">
-        <v>2472.1111340841</v>
+        <v>2805.289483127069</v>
       </c>
       <c r="R21">
-        <v>2472.1111340841</v>
+        <v>25247.60534814362</v>
       </c>
       <c r="S21">
-        <v>0.08836640983566475</v>
+        <v>0.0840484773234673</v>
       </c>
       <c r="T21">
-        <v>0.08836640983566475</v>
+        <v>0.09518942123046704</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.9711979334492</v>
+        <v>32.892914</v>
       </c>
       <c r="H22">
-        <v>30.9711979334492</v>
+        <v>98.678742</v>
       </c>
       <c r="I22">
-        <v>0.2475729957782262</v>
+        <v>0.2470919881375853</v>
       </c>
       <c r="J22">
-        <v>0.2475729957782262</v>
+        <v>0.2616261080138164</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.3074741009588</v>
+        <v>32.77748500000001</v>
       </c>
       <c r="N22">
-        <v>16.3074741009588</v>
+        <v>98.33245500000001</v>
       </c>
       <c r="O22">
-        <v>0.07292234892893067</v>
+        <v>0.1307288616208147</v>
       </c>
       <c r="P22">
-        <v>0.07292234892893067</v>
+        <v>0.1398324280804446</v>
       </c>
       <c r="Q22">
-        <v>505.0620081753916</v>
+        <v>1078.14699524129</v>
       </c>
       <c r="R22">
-        <v>505.0620081753916</v>
+        <v>9703.322957171611</v>
       </c>
       <c r="S22">
-        <v>0.01805360438352049</v>
+        <v>0.03230205432485037</v>
       </c>
       <c r="T22">
-        <v>0.01805360438352049</v>
+        <v>0.03658381393280861</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.9711979334492</v>
+        <v>32.892914</v>
       </c>
       <c r="H23">
-        <v>30.9711979334492</v>
+        <v>98.678742</v>
       </c>
       <c r="I23">
-        <v>0.2475729957782262</v>
+        <v>0.2470919881375853</v>
       </c>
       <c r="J23">
-        <v>0.2475729957782262</v>
+        <v>0.2616261080138164</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.43967229135281</v>
+        <v>80.65247599999999</v>
       </c>
       <c r="N23">
-        <v>79.43967229135281</v>
+        <v>241.957428</v>
       </c>
       <c r="O23">
-        <v>0.355231439631067</v>
+        <v>0.3216722202566814</v>
       </c>
       <c r="P23">
-        <v>0.355231439631067</v>
+        <v>0.3440725104375696</v>
       </c>
       <c r="Q23">
-        <v>2460.341814303828</v>
+        <v>2652.894956955064</v>
       </c>
       <c r="R23">
-        <v>2460.341814303828</v>
+        <v>23876.05461259558</v>
       </c>
       <c r="S23">
-        <v>0.08794571170407535</v>
+        <v>0.07948262843185466</v>
       </c>
       <c r="T23">
-        <v>0.08794571170407535</v>
+        <v>0.09001835178032455</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.9711979334492</v>
+        <v>32.892914</v>
       </c>
       <c r="H24">
-        <v>30.9711979334492</v>
+        <v>98.678742</v>
       </c>
       <c r="I24">
-        <v>0.2475729957782262</v>
+        <v>0.2470919881375853</v>
       </c>
       <c r="J24">
-        <v>0.2475729957782262</v>
+        <v>0.2616261080138164</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.81190684904634</v>
+        <v>3.043386333333333</v>
       </c>
       <c r="N24">
-        <v>2.81190684904634</v>
+        <v>9.130158999999999</v>
       </c>
       <c r="O24">
-        <v>0.01257404127287568</v>
+        <v>0.01213816224243598</v>
       </c>
       <c r="P24">
-        <v>0.01257404127287568</v>
+        <v>0.01298342751363752</v>
       </c>
       <c r="Q24">
-        <v>87.08812359223566</v>
+        <v>100.1058449311086</v>
       </c>
       <c r="R24">
-        <v>87.08812359223566</v>
+        <v>900.9526043799779</v>
       </c>
       <c r="S24">
-        <v>0.003112993066964892</v>
+        <v>0.002999242640820078</v>
       </c>
       <c r="T24">
-        <v>0.003112993066964892</v>
+        <v>0.003396803609072486</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.9711979334492</v>
+        <v>32.892914</v>
       </c>
       <c r="H25">
-        <v>30.9711979334492</v>
+        <v>98.678742</v>
       </c>
       <c r="I25">
-        <v>0.2475729957782262</v>
+        <v>0.2470919881375853</v>
       </c>
       <c r="J25">
-        <v>0.2475729957782262</v>
+        <v>0.2616261080138164</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>43.4367152117281</v>
+        <v>47.136178</v>
       </c>
       <c r="N25">
-        <v>43.4367152117281</v>
+        <v>94.272356</v>
       </c>
       <c r="O25">
-        <v>0.1942365373929978</v>
+        <v>0.1879966962412182</v>
       </c>
       <c r="P25">
-        <v>0.1942365373929978</v>
+        <v>0.1340588154780033</v>
       </c>
       <c r="Q25">
-        <v>1345.287104401295</v>
+        <v>1550.446249242692</v>
       </c>
       <c r="R25">
-        <v>1345.287104401295</v>
+        <v>9302.677495456152</v>
       </c>
       <c r="S25">
-        <v>0.04808772145197392</v>
+        <v>0.04645247743754033</v>
       </c>
       <c r="T25">
-        <v>0.04808772145197392</v>
+        <v>0.03507328613845238</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.6697546282229</v>
+        <v>13.123757</v>
       </c>
       <c r="H26">
-        <v>12.6697546282229</v>
+        <v>39.371271</v>
       </c>
       <c r="I26">
-        <v>0.1012776165721551</v>
+        <v>0.09858582942710861</v>
       </c>
       <c r="J26">
-        <v>0.1012776165721551</v>
+        <v>0.1043847153958169</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.81248289700344</v>
+        <v>1.8337055</v>
       </c>
       <c r="N26">
-        <v>1.81248289700344</v>
+        <v>3.667411</v>
       </c>
       <c r="O26">
-        <v>0.00810490388791928</v>
+        <v>0.007313502929307318</v>
       </c>
       <c r="P26">
-        <v>0.00810490388791928</v>
+        <v>0.00521519558215984</v>
       </c>
       <c r="Q26">
-        <v>22.96371357288418</v>
+        <v>24.0651053915635</v>
       </c>
       <c r="R26">
-        <v>22.96371357288418</v>
+        <v>144.390632349381</v>
       </c>
       <c r="S26">
-        <v>0.0008208453483148577</v>
+        <v>0.0007210077523033504</v>
       </c>
       <c r="T26">
-        <v>0.0008208453483148577</v>
+        <v>0.0005443867065772763</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.6697546282229</v>
+        <v>13.123757</v>
       </c>
       <c r="H27">
-        <v>12.6697546282229</v>
+        <v>39.371271</v>
       </c>
       <c r="I27">
-        <v>0.1012776165721551</v>
+        <v>0.09858582942710861</v>
       </c>
       <c r="J27">
-        <v>0.1012776165721551</v>
+        <v>0.1043847153958169</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>79.8196808336624</v>
+        <v>85.28552633333334</v>
       </c>
       <c r="N27">
-        <v>79.8196808336624</v>
+        <v>255.856579</v>
       </c>
       <c r="O27">
-        <v>0.3569307288862095</v>
+        <v>0.3401505567095424</v>
       </c>
       <c r="P27">
-        <v>0.3569307288862095</v>
+        <v>0.3638376229081851</v>
       </c>
       <c r="Q27">
-        <v>1011.295770665569</v>
+        <v>1119.266523215768</v>
       </c>
       <c r="R27">
-        <v>1011.295770665569</v>
+        <v>10073.39870894191</v>
       </c>
       <c r="S27">
-        <v>0.03614909350295736</v>
+        <v>0.03353402476330299</v>
       </c>
       <c r="T27">
-        <v>0.03614909350295736</v>
+        <v>0.03797908671756144</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.6697546282229</v>
+        <v>13.123757</v>
       </c>
       <c r="H28">
-        <v>12.6697546282229</v>
+        <v>39.371271</v>
       </c>
       <c r="I28">
-        <v>0.1012776165721551</v>
+        <v>0.09858582942710861</v>
       </c>
       <c r="J28">
-        <v>0.1012776165721551</v>
+        <v>0.1043847153958169</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>16.3074741009588</v>
+        <v>32.77748500000001</v>
       </c>
       <c r="N28">
-        <v>16.3074741009588</v>
+        <v>98.33245500000001</v>
       </c>
       <c r="O28">
-        <v>0.07292234892893067</v>
+        <v>0.1307288616208147</v>
       </c>
       <c r="P28">
-        <v>0.07292234892893067</v>
+        <v>0.1398324280804446</v>
       </c>
       <c r="Q28">
-        <v>206.6116954652478</v>
+        <v>430.163748211145</v>
       </c>
       <c r="R28">
-        <v>206.6116954652478</v>
+        <v>3871.473733900305</v>
       </c>
       <c r="S28">
-        <v>0.007385401694365143</v>
+        <v>0.01288801325294972</v>
       </c>
       <c r="T28">
-        <v>0.007385401694365143</v>
+        <v>0.01459636820828324</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.6697546282229</v>
+        <v>13.123757</v>
       </c>
       <c r="H29">
-        <v>12.6697546282229</v>
+        <v>39.371271</v>
       </c>
       <c r="I29">
-        <v>0.1012776165721551</v>
+        <v>0.09858582942710861</v>
       </c>
       <c r="J29">
-        <v>0.1012776165721551</v>
+        <v>0.1043847153958169</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.43967229135281</v>
+        <v>80.65247599999999</v>
       </c>
       <c r="N29">
-        <v>79.43967229135281</v>
+        <v>241.957428</v>
       </c>
       <c r="O29">
-        <v>0.355231439631067</v>
+        <v>0.3216722202566814</v>
       </c>
       <c r="P29">
-        <v>0.355231439631067</v>
+        <v>0.3440725104375696</v>
       </c>
       <c r="Q29">
-        <v>1006.481155677878</v>
+        <v>1058.463496472332</v>
       </c>
       <c r="R29">
-        <v>1006.481155677878</v>
+        <v>9526.171468250988</v>
       </c>
       <c r="S29">
-        <v>0.03597699353732985</v>
+        <v>0.03171232263766451</v>
       </c>
       <c r="T29">
-        <v>0.03597699353732985</v>
+        <v>0.03591591107754993</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.6697546282229</v>
+        <v>13.123757</v>
       </c>
       <c r="H30">
-        <v>12.6697546282229</v>
+        <v>39.371271</v>
       </c>
       <c r="I30">
-        <v>0.1012776165721551</v>
+        <v>0.09858582942710861</v>
       </c>
       <c r="J30">
-        <v>0.1012776165721551</v>
+        <v>0.1043847153958169</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.81190684904634</v>
+        <v>3.043386333333333</v>
       </c>
       <c r="N30">
-        <v>2.81190684904634</v>
+        <v>9.130158999999999</v>
       </c>
       <c r="O30">
-        <v>0.01257404127287568</v>
+        <v>0.01213816224243598</v>
       </c>
       <c r="P30">
-        <v>0.01257404127287568</v>
+        <v>0.01298342751363752</v>
       </c>
       <c r="Q30">
-        <v>35.62616981483654</v>
+        <v>39.94066269578766</v>
       </c>
       <c r="R30">
-        <v>35.62616981483654</v>
+        <v>359.465964262089</v>
       </c>
       <c r="S30">
-        <v>0.001273468930796756</v>
+        <v>0.001196650792391364</v>
       </c>
       <c r="T30">
-        <v>0.001273468930796756</v>
+        <v>0.001355271385873271</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.6697546282229</v>
+        <v>13.123757</v>
       </c>
       <c r="H31">
-        <v>12.6697546282229</v>
+        <v>39.371271</v>
       </c>
       <c r="I31">
-        <v>0.1012776165721551</v>
+        <v>0.09858582942710861</v>
       </c>
       <c r="J31">
-        <v>0.1012776165721551</v>
+        <v>0.1043847153958169</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>43.4367152117281</v>
+        <v>47.136178</v>
       </c>
       <c r="N31">
-        <v>43.4367152117281</v>
+        <v>94.272356</v>
       </c>
       <c r="O31">
-        <v>0.1942365373929978</v>
+        <v>0.1879966962412182</v>
       </c>
       <c r="P31">
-        <v>0.1942365373929978</v>
+        <v>0.1340588154780033</v>
       </c>
       <c r="Q31">
-        <v>550.3325235885922</v>
+        <v>618.603745980746</v>
       </c>
       <c r="R31">
-        <v>550.3325235885922</v>
+        <v>3711.622475884476</v>
       </c>
       <c r="S31">
-        <v>0.01967181355839109</v>
+        <v>0.01853381022849669</v>
       </c>
       <c r="T31">
-        <v>0.01967181355839109</v>
+        <v>0.0139936912999717</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.53463747831224</v>
+        <v>4.534637500000001</v>
       </c>
       <c r="H32">
-        <v>4.53463747831224</v>
+        <v>9.069275000000001</v>
       </c>
       <c r="I32">
-        <v>0.03624831650639852</v>
+        <v>0.03406425454911809</v>
       </c>
       <c r="J32">
-        <v>0.03624831650639852</v>
+        <v>0.02404529154574149</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.81248289700344</v>
+        <v>1.8337055</v>
       </c>
       <c r="N32">
-        <v>1.81248289700344</v>
+        <v>3.667411</v>
       </c>
       <c r="O32">
-        <v>0.00810490388791928</v>
+        <v>0.007313502929307318</v>
       </c>
       <c r="P32">
-        <v>0.00810490388791928</v>
+        <v>0.00521519558215984</v>
       </c>
       <c r="Q32">
-        <v>8.218952873551741</v>
+        <v>8.315189724256252</v>
       </c>
       <c r="R32">
-        <v>8.218952873551741</v>
+        <v>33.26075889702501</v>
       </c>
       <c r="S32">
-        <v>0.000293789121383238</v>
+        <v>0.0002491290254296453</v>
       </c>
       <c r="T32">
-        <v>0.000293789121383238</v>
+        <v>0.0001254008982410963</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.53463747831224</v>
+        <v>4.534637500000001</v>
       </c>
       <c r="H33">
-        <v>4.53463747831224</v>
+        <v>9.069275000000001</v>
       </c>
       <c r="I33">
-        <v>0.03624831650639852</v>
+        <v>0.03406425454911809</v>
       </c>
       <c r="J33">
-        <v>0.03624831650639852</v>
+        <v>0.02404529154574149</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>79.8196808336624</v>
+        <v>85.28552633333334</v>
       </c>
       <c r="N33">
-        <v>79.8196808336624</v>
+        <v>255.856579</v>
       </c>
       <c r="O33">
-        <v>0.3569307288862095</v>
+        <v>0.3401505567095424</v>
       </c>
       <c r="P33">
-        <v>0.3569307288862095</v>
+        <v>0.3638376229081851</v>
       </c>
       <c r="Q33">
-        <v>361.9533162152467</v>
+        <v>386.7389459183709</v>
       </c>
       <c r="R33">
-        <v>361.9533162152467</v>
+        <v>2320.433675510225</v>
       </c>
       <c r="S33">
-        <v>0.01293813803152684</v>
+        <v>0.01158697514877808</v>
       </c>
       <c r="T33">
-        <v>0.01293813803152684</v>
+        <v>0.008748581718136863</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.53463747831224</v>
+        <v>4.534637500000001</v>
       </c>
       <c r="H34">
-        <v>4.53463747831224</v>
+        <v>9.069275000000001</v>
       </c>
       <c r="I34">
-        <v>0.03624831650639852</v>
+        <v>0.03406425454911809</v>
       </c>
       <c r="J34">
-        <v>0.03624831650639852</v>
+        <v>0.02404529154574149</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>16.3074741009588</v>
+        <v>32.77748500000001</v>
       </c>
       <c r="N34">
-        <v>16.3074741009588</v>
+        <v>98.33245500000001</v>
       </c>
       <c r="O34">
-        <v>0.07292234892893067</v>
+        <v>0.1307288616208147</v>
       </c>
       <c r="P34">
-        <v>0.07292234892893067</v>
+        <v>0.1398324280804446</v>
       </c>
       <c r="Q34">
-        <v>73.94848323481396</v>
+        <v>148.6340126366875</v>
       </c>
       <c r="R34">
-        <v>73.94848323481396</v>
+        <v>891.8040758201251</v>
       </c>
       <c r="S34">
-        <v>0.002643312384365909</v>
+        <v>0.004453181219167864</v>
       </c>
       <c r="T34">
-        <v>0.002643312384365909</v>
+        <v>0.003362311500743218</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.53463747831224</v>
+        <v>4.534637500000001</v>
       </c>
       <c r="H35">
-        <v>4.53463747831224</v>
+        <v>9.069275000000001</v>
       </c>
       <c r="I35">
-        <v>0.03624831650639852</v>
+        <v>0.03406425454911809</v>
       </c>
       <c r="J35">
-        <v>0.03624831650639852</v>
+        <v>0.02404529154574149</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.43967229135281</v>
+        <v>80.65247599999999</v>
       </c>
       <c r="N35">
-        <v>79.43967229135281</v>
+        <v>241.957428</v>
       </c>
       <c r="O35">
-        <v>0.355231439631067</v>
+        <v>0.3216722202566814</v>
       </c>
       <c r="P35">
-        <v>0.355231439631067</v>
+        <v>0.3440725104375696</v>
       </c>
       <c r="Q35">
-        <v>360.2301152372108</v>
+        <v>365.72974213745</v>
       </c>
       <c r="R35">
-        <v>360.2301152372108</v>
+        <v>2194.3784528247</v>
       </c>
       <c r="S35">
-        <v>0.01287654165677051</v>
+        <v>0.01095752439220357</v>
       </c>
       <c r="T35">
-        <v>0.01287654165677051</v>
+        <v>0.008273323826346541</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.53463747831224</v>
+        <v>4.534637500000001</v>
       </c>
       <c r="H36">
-        <v>4.53463747831224</v>
+        <v>9.069275000000001</v>
       </c>
       <c r="I36">
-        <v>0.03624831650639852</v>
+        <v>0.03406425454911809</v>
       </c>
       <c r="J36">
-        <v>0.03624831650639852</v>
+        <v>0.02404529154574149</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.81190684904634</v>
+        <v>3.043386333333333</v>
       </c>
       <c r="N36">
-        <v>2.81190684904634</v>
+        <v>9.130158999999999</v>
       </c>
       <c r="O36">
-        <v>0.01257404127287568</v>
+        <v>0.01213816224243598</v>
       </c>
       <c r="P36">
-        <v>0.01257404127287568</v>
+        <v>0.01298342751363752</v>
       </c>
       <c r="Q36">
-        <v>12.75097818320841</v>
+        <v>13.80065379412083</v>
       </c>
       <c r="R36">
-        <v>12.75097818320841</v>
+        <v>82.803922764725</v>
       </c>
       <c r="S36">
-        <v>0.0004557878278237157</v>
+        <v>0.0004134774483848332</v>
       </c>
       <c r="T36">
-        <v>0.0004557878278237157</v>
+        <v>0.0003121902998284157</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.53463747831224</v>
+        <v>4.534637500000001</v>
       </c>
       <c r="H37">
-        <v>4.53463747831224</v>
+        <v>9.069275000000001</v>
       </c>
       <c r="I37">
-        <v>0.03624831650639852</v>
+        <v>0.03406425454911809</v>
       </c>
       <c r="J37">
-        <v>0.03624831650639852</v>
+        <v>0.02404529154574149</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>43.4367152117281</v>
+        <v>47.136178</v>
       </c>
       <c r="N37">
-        <v>43.4367152117281</v>
+        <v>94.272356</v>
       </c>
       <c r="O37">
-        <v>0.1942365373929978</v>
+        <v>0.1879966962412182</v>
       </c>
       <c r="P37">
-        <v>0.1942365373929978</v>
+        <v>0.1340588154780033</v>
       </c>
       <c r="Q37">
-        <v>196.9697567338776</v>
+        <v>213.745480365475</v>
       </c>
       <c r="R37">
-        <v>196.9697567338776</v>
+        <v>854.9819214619001</v>
       </c>
       <c r="S37">
-        <v>0.007040747484528294</v>
+        <v>0.006403967315154089</v>
       </c>
       <c r="T37">
-        <v>0.007040747484528294</v>
+        <v>0.003223483302445351</v>
       </c>
     </row>
   </sheetData>
